--- a/Excel/StartConfig/Release/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartZoneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,10 @@
     <t>mongodb://127.0.0.1</t>
   </si>
   <si>
-    <t>ET3</t>
+    <t>ET1</t>
   </si>
   <si>
-    <t>ET4</t>
+    <t>ET2</t>
   </si>
 </sst>
 </file>
@@ -56,7 +56,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,12 +72,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -540,10 +534,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,33 +546,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,101 +585,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -695,9 +689,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,7 +1042,7 @@
   <dimension ref="C3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1100,7 +1091,7 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1111,7 +1102,7 @@
       <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
